--- a/head_words_excel/hpk_headwords_p.xlsx
+++ b/head_words_excel/hpk_headwords_p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="178"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="159"/>
   </bookViews>
   <sheets>
     <sheet name="552" sheetId="1" state="visible" r:id="rId2"/>
@@ -5077,7 +5077,7 @@
     <t>pūnu</t>
   </si>
   <si>
-    <t>unua</t>
+    <t>punua</t>
   </si>
   <si>
     <t>punuhuki</t>
@@ -12226,8 +12226,8 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14040,7 +14040,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
